--- a/ResultadoEleicoesDistritos/PORTALEGRE_CRATO.xlsx
+++ b/ResultadoEleicoesDistritos/PORTALEGRE_CRATO.xlsx
@@ -597,25 +597,25 @@
         <v>873</v>
       </c>
       <c r="H2" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I2" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J2" t="n">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="M2" t="n">
         <v>11</v>
       </c>
       <c r="N2" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -627,34 +627,34 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S2" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="T2" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V2" t="n">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
